--- a/projectwork/projectwork/uploads/--4_demoEng.xlsx
+++ b/projectwork/projectwork/uploads/--4_demoEng.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
